--- a/data/overview_data.xlsx
+++ b/data/overview_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/female-labour/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/maternal-employment/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{EFEF3071-C7AC-4B50-AEBF-3E7B0F57F856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFD2E0F6-3876-4E91-8527-BC9D8801C230}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{EFEF3071-C7AC-4B50-AEBF-3E7B0F57F856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{253B63AC-5558-4A8F-B483-DF7E2422D7E2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B14DAC04-8899-40C0-8A4E-FB6D74305981}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B14DAC04-8899-40C0-8A4E-FB6D74305981}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>url</t>
   </si>
@@ -50,9 +50,6 @@
     <t>name_now</t>
   </si>
   <si>
-    <t>changes undertaken</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Data for the United Kingdom refer to England &amp; Wales only</t>
   </si>
   <si>
@@ -86,18 +83,6 @@
     <t>TotalFertilityRates</t>
   </si>
   <si>
-    <t>Table SF1.1.B. Households by number of children, 2015a</t>
-  </si>
-  <si>
-    <t>SF1.1 Family size and composition</t>
-  </si>
-  <si>
-    <t>a) Data for Mexico and the United States to 2010, for Norway to 2011, and for New Zealand to 2013</t>
-  </si>
-  <si>
-    <t>proportion-households-by-no-children, 2015</t>
-  </si>
-  <si>
     <t>maternal-employment-rate</t>
   </si>
   <si>
@@ -107,12 +92,6 @@
     <t>Chart LMF1.2.A Maternal employment rates…</t>
   </si>
   <si>
-    <t>maternal-employment-rate.-by-no-children</t>
-  </si>
-  <si>
-    <t>Chart LMF1.2.D.</t>
-  </si>
-  <si>
     <t>women with a youngest child aged 0-14</t>
   </si>
   <si>
@@ -143,18 +122,9 @@
     <t>LMF1.5 Gender pay gaps for full-time workers and earnings by educational attainment</t>
   </si>
   <si>
-    <t>gender-employment-gap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full-time equivalent employment rate, </t>
-  </si>
-  <si>
     <t>comment 2</t>
   </si>
   <si>
-    <t>Notes: The full-time equivalent employment rate is calculated as the employment rate for 15-64 years old multiplied by the average usual hours worked per week per person in employment (both dependent and self-employment), divided by 40. For the United States, the full-time equivalent is calculated based on usual working hours for dependent employees only. For Korea, data refer to actual weekly working hours in all jobs.  Data refer to 2018 for Australia and to 2020 for Türkiye and the United Kingdom.</t>
-  </si>
-  <si>
     <t>comment 1</t>
   </si>
   <si>
@@ -164,48 +134,9 @@
     <t>LMF1.6 Gender differences in employment outcomes</t>
   </si>
   <si>
-    <t>Chart LMF1.6.A.</t>
-  </si>
-  <si>
     <t>Chart LMF1.6.E.</t>
   </si>
   <si>
-    <t>% of GDP; total: cash, services and tax breaks</t>
-  </si>
-  <si>
-    <t>Chart PF1.1.A.</t>
-  </si>
-  <si>
-    <t>PF1.1 Public spending on family benefits</t>
-  </si>
-  <si>
-    <t>spending_education_%GDP_2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excluding tertiary education; private+public expenditure; 2021 </t>
-  </si>
-  <si>
-    <t>Chart PF1.2.A.</t>
-  </si>
-  <si>
-    <t>PF1.2 Public spending on education</t>
-  </si>
-  <si>
-    <t>Chart PF3.1.A.</t>
-  </si>
-  <si>
-    <t>PF3.1 Public spending on childcare and early education</t>
-  </si>
-  <si>
-    <t>% of GDP; 2019 or latest avalaible</t>
-  </si>
-  <si>
-    <t>public_spending_early_childhood_education_care_%GDP_2019</t>
-  </si>
-  <si>
-    <t>public_spending_family_benefits_total_%GDP_2019</t>
-  </si>
-  <si>
     <t>PF2.1 Key characteristics of parental leave systems</t>
   </si>
   <si>
@@ -242,24 +173,12 @@
     <t>age: 15-64</t>
   </si>
   <si>
-    <t>empl_rate_by_age_child_by_gender_2023</t>
-  </si>
-  <si>
     <t>pt_empl_by_gender</t>
   </si>
   <si>
-    <t>age: 20-49</t>
-  </si>
-  <si>
     <t>lfsi_pt_a</t>
   </si>
   <si>
-    <t>lfst_hheredch</t>
-  </si>
-  <si>
-    <t>Employment rate of adults by sex, age groups, educational attainment level, number of children and age of youngest child (%)</t>
-  </si>
-  <si>
     <t>Part-time employment and temporary contracts - annual data (lfsi_pt_a)</t>
   </si>
   <si>
@@ -290,29 +209,83 @@
     <t>% of GDP, 2022</t>
   </si>
   <si>
-    <t>Public expenditure on education by education level and programme orientation - as % of GDP</t>
-  </si>
-  <si>
-    <t>educ_uoe_fine06</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/eurostat/statistics-explained/index.php?title=Educational_expenditure_statistics#Public_expenditure</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.2908/EDUC_UOE_FINE06</t>
-  </si>
-  <si>
-    <t>spending_education</t>
-  </si>
-  <si>
-    <t>% of GDP, 2019</t>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/une_rt_m__custom_15256210/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>une_rt_m</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>09/23, seasonally adjusted</t>
+  </si>
+  <si>
+    <t>Unemployment by sex and age – monthly data</t>
+  </si>
+  <si>
+    <t>Eurostat</t>
+  </si>
+  <si>
+    <t>eurostat</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/sdg_08_10__custom_15256355/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>sdg_08_10</t>
+  </si>
+  <si>
+    <t>gdp_capita</t>
+  </si>
+  <si>
+    <t>2022, chain linkes volumns, euro per capita</t>
+  </si>
+  <si>
+    <t>Real GDP per capita</t>
+  </si>
+  <si>
+    <t>num_women_childbearing_age</t>
+  </si>
+  <si>
+    <t>Population by educational attainment level, sex and age (%)</t>
+  </si>
+  <si>
+    <t>edat_lfs_9903</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/edat_lfs_9903__custom_15256494/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>2022, age 15-69</t>
+  </si>
+  <si>
+    <t>education_women</t>
+  </si>
+  <si>
+    <t>level 0-2 ("low"): Less than primary, primary and lower secondary education; level 3-4 ("medium"): Upper secondary and post-secondary non-tertiary education; level 5-8 ("high"): Tertiary education</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/demo_pjanind__custom_15256807/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>Population structure indicators at national level</t>
+  </si>
+  <si>
+    <t>demo_pjanind</t>
+  </si>
+  <si>
+    <t>2022, 15-49 years old</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/lfsi_pt_a/default/table?lang=en&amp;category=labour.employ.lfsi.lfsi_emp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,17 +313,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF515560"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -366,18 +328,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -394,18 +350,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -746,513 +696,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F31DB1-6020-4F92-8697-8D23EE3E3C1B}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="4" max="4" width="19.6328125" customWidth="1"/>
     <col min="5" max="5" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.5">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.5" customHeight="1">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
         <v>55</v>
       </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="E20" t="s">
         <v>69</v>
       </c>
-      <c r="G22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="40">
-      <c r="A25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" t="s">
-        <v>89</v>
+      <c r="F20" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G5:M5"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{60BBB6F3-D0EF-47E3-A6CA-A4127F2A2126}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{FF582A82-B286-470F-B2EC-D2ACB5CD986A}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{1F902758-96FA-4F83-90A1-F1338FB4CA75}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{FEA95C50-71CD-45F7-9D53-DA81330730D0}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{55ADF7AA-6845-4241-BFB9-913DD097BFBE}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{3EC7DE87-6CBE-4C94-8815-31197EFF0A20}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{71947F67-8E09-4140-9214-98DEA3CD4C98}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{3B76F8CA-24D6-482C-A1D2-D3A6E5A32139}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{D299E0B6-CA6E-47D4-8C7F-6C2ED0730975}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{F45B0C4D-8834-4EF2-B670-FF53E651D2B8}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{A5A9FC34-E28E-40B1-9621-3DBB7FBEB851}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{36942952-3432-47B3-A4EB-AD44D77B0529}"/>
-    <hyperlink ref="C16" r:id="rId13" xr:uid="{C3B7113F-DB0F-4B06-85E6-B7DC7EF1689D}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{67B0BC5C-2C4B-4A1F-B551-8C13410C447D}"/>
-    <hyperlink ref="C19" r:id="rId15" xr:uid="{3C0A4562-9E04-42EB-AC48-78EE04CAC57A}"/>
-    <hyperlink ref="C22" r:id="rId16" xr:uid="{8154EA16-FF72-451C-8299-D5B21A2E16C8}"/>
-    <hyperlink ref="C23" r:id="rId17" xr:uid="{041A4822-09C5-4BA8-B956-BCC7BF40C30B}"/>
-    <hyperlink ref="C17" r:id="rId18" xr:uid="{02B5D5D7-E656-4ECE-B092-8E823F118CC1}"/>
-    <hyperlink ref="C24" r:id="rId19" xr:uid="{755632C9-8918-41F6-8CFD-6266DFEDD280}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{1F902758-96FA-4F83-90A1-F1338FB4CA75}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{55ADF7AA-6845-4241-BFB9-913DD097BFBE}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{3EC7DE87-6CBE-4C94-8815-31197EFF0A20}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{71947F67-8E09-4140-9214-98DEA3CD4C98}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{3B76F8CA-24D6-482C-A1D2-D3A6E5A32139}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{F45B0C4D-8834-4EF2-B670-FF53E651D2B8}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{67B0BC5C-2C4B-4A1F-B551-8C13410C447D}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{3C0A4562-9E04-42EB-AC48-78EE04CAC57A}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{02B5D5D7-E656-4ECE-B092-8E823F118CC1}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{755632C9-8918-41F6-8CFD-6266DFEDD280}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>